--- a/Results/aemo_generation_emission_WS.xlsx
+++ b/Results/aemo_generation_emission_WS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3014431d783ae085/AER work/Electricity emission/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weisun/Documents/GitHub/NEM-Generation-Emission/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="8_{E8F85FD5-BE0D-0C40-B326-D813AB435A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{65077511-BCEB-4E71-A5F7-5EBA2D09694B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA84A5-E6C4-C64A-A422-D8A1D600FDF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14775" activeTab="1" xr2:uid="{BAB7DCDD-F3D9-C842-BF12-6C95063187E4}"/>
+    <workbookView xWindow="40840" yWindow="4560" windowWidth="29040" windowHeight="14780" activeTab="1" xr2:uid="{BAB7DCDD-F3D9-C842-BF12-6C95063187E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="49" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -121,25 +121,25 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="等线 Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -147,7 +147,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -155,7 +155,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -163,35 +163,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -199,7 +199,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -207,14 +207,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -222,14 +222,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -237,7 +237,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,20 +245,20 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Aptos Narrow"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -670,139 +670,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="48">
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
@@ -831,7 +699,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -863,7 +731,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>NEM generation vs emission</a:t>
+              <a:t>NEM generation vs emission (AEMO)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -893,7 +761,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1154,7 +1022,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1353710288"/>
@@ -1243,7 +1111,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1275,7 +1143,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1353709808"/>
@@ -1341,7 +1209,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1373,7 +1241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="zh-CN"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1043218623"/>
@@ -1393,6 +1261,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1043228703"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1433,7 +1302,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1470,7 +1339,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2031,15 +1900,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1652587</xdr:colOff>
+      <xdr:colOff>1652586</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>176212</xdr:colOff>
+      <xdr:colOff>280986</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5489,7 +5358,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDDC5C7E-4C72-9441-A482-AF5F5B88751F}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDDC5C7E-4C72-9441-A482-AF5F5B88751F}" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A5:C11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="6">
     <pivotField axis="axisPage" compact="0" outline="0" showAll="0" defaultSubtotal="0">
@@ -5570,16 +5439,16 @@
     <dataField name="Sum of EMISSION" fld="5" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="0">
+    <format dxfId="3">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="1">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5924,16 +5793,16 @@
       <selection activeCell="A5" sqref="A5:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -5941,7 +5810,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -5952,7 +5821,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
@@ -5963,7 +5832,7 @@
         <v>155727078.35496613</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -5974,7 +5843,7 @@
         <v>144326932.42162445</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
@@ -5985,7 +5854,7 @@
         <v>134179291.17780516</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -5996,7 +5865,7 @@
         <v>127329989.14596663</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
@@ -6007,7 +5876,7 @@
         <v>120390056.77098431</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
@@ -6032,18 +5901,18 @@
   <dimension ref="A2:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
@@ -6057,7 +5926,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -6072,7 +5941,7 @@
         <v>155727078.35496613</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -6087,7 +5956,7 @@
         <v>144326932.42162445</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -6102,7 +5971,7 @@
         <v>134179291.17780516</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -6117,7 +5986,7 @@
         <v>127329989.14596663</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -6132,7 +6001,7 @@
         <v>120390056.77098431</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -6162,9 +6031,9 @@
       <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6184,7 +6053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -6204,7 +6073,7 @@
         <v>5318590.8943999996</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -6224,7 +6093,7 @@
         <v>4522194.7789000003</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -6244,7 +6113,7 @@
         <v>4830637.4793999996</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -6264,7 +6133,7 @@
         <v>4191653.0767999999</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -6284,7 +6153,7 @@
         <v>4787173.4172999999</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -6304,7 +6173,7 @@
         <v>5035413.5662000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -6324,7 +6193,7 @@
         <v>5111619.2163000004</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6344,7 +6213,7 @@
         <v>4416072.7236000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -6364,7 +6233,7 @@
         <v>3808006.1212299899</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -6384,7 +6253,7 @@
         <v>4091129.8248000001</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -6404,7 +6273,7 @@
         <v>4300368.6010999996</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -6424,7 +6293,7 @@
         <v>4790184.0657092901</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -6444,7 +6313,7 @@
         <v>5083142.8539514001</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -6464,7 +6333,7 @@
         <v>4448098.2427777899</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -6484,7 +6353,7 @@
         <v>4576195.6759043001</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -6504,7 +6373,7 @@
         <v>3976488.1693748501</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -6524,7 +6393,7 @@
         <v>4413680.5442666998</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -6544,7 +6413,7 @@
         <v>4607356.8939662501</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -6564,7 +6433,7 @@
         <v>4729430.9026606902</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -6584,7 +6453,7 @@
         <v>4202172.5108578503</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -6604,7 +6473,7 @@
         <v>4104032.1461653002</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -6624,7 +6493,7 @@
         <v>4243346.5146263503</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -6644,7 +6513,7 @@
         <v>4191601.3329758099</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -6664,7 +6533,7 @@
         <v>4280975.9956855699</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -6684,7 +6553,7 @@
         <v>5087731.2801027698</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -6704,7 +6573,7 @@
         <v>4163345.18439015</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -6724,7 +6593,7 @@
         <v>4307818.8416290702</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -6744,7 +6613,7 @@
         <v>3900200.0251691001</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>6</v>
       </c>
@@ -6764,7 +6633,7 @@
         <v>4313302.2217968497</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -6784,7 +6653,7 @@
         <v>4511578.4474682398</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -6804,7 +6673,7 @@
         <v>4726682.3219763096</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -6824,7 +6693,7 @@
         <v>4445335.8345310101</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -6844,7 +6713,7 @@
         <v>3646168.0965957702</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -6864,7 +6733,7 @@
         <v>3581872.0365835</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>6</v>
       </c>
@@ -6884,7 +6753,7 @@
         <v>3702961.8919393099</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -6904,7 +6773,7 @@
         <v>4251207.1629881002</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -6924,7 +6793,7 @@
         <v>4447150.88989136</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -6944,7 +6813,7 @@
         <v>3856868.4230397502</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -6964,7 +6833,7 @@
         <v>3659732.03285767</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -6984,7 +6853,7 @@
         <v>3385133.1891053002</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>6</v>
       </c>
@@ -7004,7 +6873,7 @@
         <v>3997725.2681403798</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -7024,7 +6893,7 @@
         <v>4304554.8223829502</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>6</v>
       </c>
@@ -7044,7 +6913,7 @@
         <v>4850483.1940363096</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -7064,7 +6933,7 @@
         <v>4166239.4637484201</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>6</v>
       </c>
@@ -7084,7 +6953,7 @@
         <v>3435181.3602434802</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -7104,7 +6973,7 @@
         <v>3308520.9228282799</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>6</v>
       </c>
@@ -7124,7 +6993,7 @@
         <v>3537501.1117066401</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -7144,7 +7013,7 @@
         <v>3373588.5103742098</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -7164,7 +7033,7 @@
         <v>3606474.4326418201</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -7184,7 +7053,7 @@
         <v>3272311.3886971702</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>6</v>
       </c>
@@ -7204,7 +7073,7 @@
         <v>3500756.87137414</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -7224,7 +7093,7 @@
         <v>3425646.9466389799</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -7244,7 +7113,7 @@
         <v>3973762.0428536101</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -7264,7 +7133,7 @@
         <v>4402481.0182255805</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -7284,7 +7153,7 @@
         <v>4457812.8952152897</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>6</v>
       </c>
@@ -7304,7 +7173,7 @@
         <v>3905054.23158012</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>6</v>
       </c>
@@ -7324,7 +7193,7 @@
         <v>3265744.31644873</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>6</v>
       </c>
@@ -7344,7 +7213,7 @@
         <v>3106757.0047023301</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>6</v>
       </c>
@@ -7364,7 +7233,7 @@
         <v>3233067.95466012</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -7384,7 +7253,7 @@
         <v>3297548.0992959798</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -7404,7 +7273,7 @@
         <v>3732808.6614700002</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -7424,7 +7293,7 @@
         <v>3261522.2138</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -7444,7 +7313,7 @@
         <v>3355681.56611</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -7464,7 +7333,7 @@
         <v>3293300.69735</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -7484,7 +7353,7 @@
         <v>3596053.2096000002</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -7504,7 +7373,7 @@
         <v>3744253.8607000001</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -7524,7 +7393,7 @@
         <v>4165554.5989999999</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>6</v>
       </c>
@@ -7544,7 +7413,7 @@
         <v>3935029.858</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>6</v>
       </c>
@@ -7564,7 +7433,7 @@
         <v>3417654.6911300002</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>6</v>
       </c>
@@ -7584,7 +7453,7 @@
         <v>3203277.3256700002</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>6</v>
       </c>
@@ -7604,7 +7473,7 @@
         <v>2865838.04379</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>6</v>
       </c>
@@ -7624,7 +7493,7 @@
         <v>2821172.3102699998</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>6</v>
       </c>
@@ -7644,7 +7513,7 @@
         <v>3158739.71727067</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -7664,7 +7533,7 @@
         <v>3149277.5842308202</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>6</v>
       </c>
@@ -7684,7 +7553,7 @@
         <v>3321002.1195975998</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>6</v>
       </c>
@@ -7704,7 +7573,7 @@
         <v>2905627.1555734701</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -7724,7 +7593,7 @@
         <v>3449690.7942552902</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>6</v>
       </c>
@@ -7744,7 +7613,7 @@
         <v>3639554.9679252799</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>6</v>
       </c>
@@ -7764,7 +7633,7 @@
         <v>3488384.7161516198</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -7784,7 +7653,7 @@
         <v>3107872.8172784201</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -7804,7 +7673,7 @@
         <v>2629267.5986460298</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>6</v>
       </c>
@@ -7824,7 +7693,7 @@
         <v>2606319.9654386002</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>6</v>
       </c>
@@ -7844,7 +7713,7 @@
         <v>2584583.98711969</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>6</v>
       </c>
@@ -7864,7 +7733,7 @@
         <v>3052928.2676866702</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -7884,7 +7753,7 @@
         <v>4543928.7222999996</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>15</v>
       </c>
@@ -7904,7 +7773,7 @@
         <v>4332333.7767000003</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>15</v>
       </c>
@@ -7924,7 +7793,7 @@
         <v>4543005.1133000003</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>15</v>
       </c>
@@ -7944,7 +7813,7 @@
         <v>4050555.9413000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -7964,7 +7833,7 @@
         <v>4068552.9519000002</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>15</v>
       </c>
@@ -7984,7 +7853,7 @@
         <v>4209423.3468000004</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>15</v>
       </c>
@@ -8004,7 +7873,7 @@
         <v>4465344.8581999997</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>15</v>
       </c>
@@ -8024,7 +7893,7 @@
         <v>4464019.6136999996</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -8044,7 +7913,7 @@
         <v>4080815.4037000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>15</v>
       </c>
@@ -8064,7 +7933,7 @@
         <v>4147181.9145</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>15</v>
       </c>
@@ -8084,7 +7953,7 @@
         <v>4315096.3129000003</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>15</v>
       </c>
@@ -8104,7 +7973,7 @@
         <v>4625124.7951048203</v>
       </c>
     </row>
-    <row r="98" spans="1:6">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>15</v>
       </c>
@@ -8124,7 +7993,7 @@
         <v>4668558.7519768402</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>15</v>
       </c>
@@ -8144,7 +8013,7 @@
         <v>4149622.2972866101</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>15</v>
       </c>
@@ -8164,7 +8033,7 @@
         <v>4458025.1584150298</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -8184,7 +8053,7 @@
         <v>4260093.1902664704</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -8204,7 +8073,7 @@
         <v>4316558.9418667201</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>15</v>
       </c>
@@ -8224,7 +8093,7 @@
         <v>4327952.1117310096</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>15</v>
       </c>
@@ -8244,7 +8113,7 @@
         <v>4242764.6508466396</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>15</v>
       </c>
@@ -8264,7 +8133,7 @@
         <v>4257448.3724363502</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>15</v>
       </c>
@@ -8284,7 +8153,7 @@
         <v>4112719.87054497</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>15</v>
       </c>
@@ -8304,7 +8173,7 @@
         <v>4053844.8635816802</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>15</v>
       </c>
@@ -8324,7 +8193,7 @@
         <v>3679610.2412833599</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>15</v>
       </c>
@@ -8344,7 +8213,7 @@
         <v>4082525.3512205202</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>15</v>
       </c>
@@ -8364,7 +8233,7 @@
         <v>4213776.44896519</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>15</v>
       </c>
@@ -8384,7 +8253,7 @@
         <v>3676305.3314395901</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>15</v>
       </c>
@@ -8404,7 +8273,7 @@
         <v>4145603.2768765702</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>15</v>
       </c>
@@ -8424,7 +8293,7 @@
         <v>3691429.68360883</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>15</v>
       </c>
@@ -8444,7 +8313,7 @@
         <v>3728324.7933376101</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>15</v>
       </c>
@@ -8464,7 +8333,7 @@
         <v>3661451.4133250001</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>15</v>
       </c>
@@ -8484,7 +8353,7 @@
         <v>3691868.0285878801</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>15</v>
       </c>
@@ -8504,7 +8373,7 @@
         <v>3775803.8565359502</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>15</v>
       </c>
@@ -8524,7 +8393,7 @@
         <v>3665407.2416105801</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>15</v>
       </c>
@@ -8544,7 +8413,7 @@
         <v>3794338.4046319602</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>15</v>
       </c>
@@ -8564,7 +8433,7 @@
         <v>3610323.18580293</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>15</v>
       </c>
@@ -8584,7 +8453,7 @@
         <v>3820072.5265874998</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>15</v>
       </c>
@@ -8604,7 +8473,7 @@
         <v>4115154.93167947</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>15</v>
       </c>
@@ -8624,7 +8493,7 @@
         <v>3773831.9823192898</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>15</v>
       </c>
@@ -8644,7 +8513,7 @@
         <v>3791515.7284713602</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>15</v>
       </c>
@@ -8664,7 +8533,7 @@
         <v>3402635.6269850498</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>15</v>
       </c>
@@ -8684,7 +8553,7 @@
         <v>3413282.6622944302</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>15</v>
       </c>
@@ -8704,7 +8573,7 @@
         <v>3432185.6432837201</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>15</v>
       </c>
@@ -8724,7 +8593,7 @@
         <v>3519594.5256949598</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>15</v>
       </c>
@@ -8744,7 +8613,7 @@
         <v>3505917.9974724199</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>15</v>
       </c>
@@ -8764,7 +8633,7 @@
         <v>3124548.1326323999</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>15</v>
       </c>
@@ -8784,7 +8653,7 @@
         <v>3505926.67095043</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>15</v>
       </c>
@@ -8804,7 +8673,7 @@
         <v>3482264.0698790899</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>15</v>
       </c>
@@ -8824,7 +8693,7 @@
         <v>3834129.7802669299</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -8844,7 +8713,7 @@
         <v>3644670.85202049</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>15</v>
       </c>
@@ -8864,7 +8733,7 @@
         <v>3324532.8839612701</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>15</v>
       </c>
@@ -8884,7 +8753,7 @@
         <v>3592321.6236251001</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>15</v>
       </c>
@@ -8904,7 +8773,7 @@
         <v>3420854.7506214301</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>15</v>
       </c>
@@ -8924,7 +8793,7 @@
         <v>3382806.3273415002</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>15</v>
       </c>
@@ -8944,7 +8813,7 @@
         <v>3278246.4521901398</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>15</v>
       </c>
@@ -8964,7 +8833,7 @@
         <v>3468502.0955660399</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>15</v>
       </c>
@@ -8984,7 +8853,7 @@
         <v>3310041.6983950902</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>15</v>
       </c>
@@ -9004,7 +8873,7 @@
         <v>3075311.73206077</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>15</v>
       </c>
@@ -9024,7 +8893,7 @@
         <v>3218346.9450763701</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>15</v>
       </c>
@@ -9044,7 +8913,7 @@
         <v>3296146.6139589101</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>15</v>
       </c>
@@ -9064,7 +8933,7 @@
         <v>3369824.3828666601</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>15</v>
       </c>
@@ -9084,7 +8953,7 @@
         <v>3428876.92755999</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>15</v>
       </c>
@@ -9104,7 +8973,7 @@
         <v>3094556.9004799998</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>15</v>
       </c>
@@ -9124,7 +8993,7 @@
         <v>3648882.7957000001</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>15</v>
       </c>
@@ -9144,7 +9013,7 @@
         <v>3164296.0795300002</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>15</v>
       </c>
@@ -9164,7 +9033,7 @@
         <v>3307921.7294600001</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>15</v>
       </c>
@@ -9184,7 +9053,7 @@
         <v>3449441.3816</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>15</v>
       </c>
@@ -9204,7 +9073,7 @@
         <v>3604029.7064999999</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>15</v>
       </c>
@@ -9224,7 +9093,7 @@
         <v>3279178.2188200001</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>15</v>
       </c>
@@ -9244,7 +9113,7 @@
         <v>2993299.3665999998</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>15</v>
       </c>
@@ -9264,7 +9133,7 @@
         <v>3173046.9100500001</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>15</v>
       </c>
@@ -9284,7 +9153,7 @@
         <v>2857826.8038599999</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>15</v>
       </c>
@@ -9304,7 +9173,7 @@
         <v>3003765.8851999999</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>15</v>
       </c>
@@ -9324,7 +9193,7 @@
         <v>3344957.6075460701</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>15</v>
       </c>
@@ -9344,7 +9213,7 @@
         <v>3233172.6962355999</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>15</v>
       </c>
@@ -9364,7 +9233,7 @@
         <v>3638484.3034589002</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>15</v>
       </c>
@@ -9384,7 +9253,7 @@
         <v>3027609.44844027</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>15</v>
       </c>
@@ -9404,7 +9273,7 @@
         <v>3196537.8947198498</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>15</v>
       </c>
@@ -9424,7 +9293,7 @@
         <v>3043626.8451948501</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -9444,7 +9313,7 @@
         <v>3284975.8993372</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>15</v>
       </c>
@@ -9464,7 +9333,7 @@
         <v>3108729.5291434401</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>15</v>
       </c>
@@ -9484,7 +9353,7 @@
         <v>2849572.2610579198</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -9504,7 +9373,7 @@
         <v>2808401.8514999598</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>15</v>
       </c>
@@ -9524,7 +9393,7 @@
         <v>3046989.0323802601</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>15</v>
       </c>
@@ -9544,7 +9413,7 @@
         <v>3108916.2842648299</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -9564,7 +9433,7 @@
         <v>295552.58179799898</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -9584,7 +9453,7 @@
         <v>282076.50237599999</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -9604,7 +9473,7 @@
         <v>312018.94524500001</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -9624,7 +9493,7 @@
         <v>264187.78069599997</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -9644,7 +9513,7 @@
         <v>351772.50996599998</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>16</v>
       </c>
@@ -9664,7 +9533,7 @@
         <v>488121.41832</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -9684,7 +9553,7 @@
         <v>422392.570473</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -9704,7 +9573,7 @@
         <v>442318.90829300001</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -9724,7 +9593,7 @@
         <v>313362.52186699997</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -9744,7 +9613,7 @@
         <v>322824.90556300001</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -9764,7 +9633,7 @@
         <v>434216.48537200002</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>16</v>
       </c>
@@ -9784,7 +9653,7 @@
         <v>386530.93503976997</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -9804,7 +9673,7 @@
         <v>374563.86914039002</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -9824,7 +9693,7 @@
         <v>317581.20061053999</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -9844,7 +9713,7 @@
         <v>279403.69560873002</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -9864,7 +9733,7 @@
         <v>316085.94771004003</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -9884,7 +9753,7 @@
         <v>309658.75905950001</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>16</v>
       </c>
@@ -9904,7 +9773,7 @@
         <v>366057.30596267001</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -9924,7 +9793,7 @@
         <v>342232.99499043002</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -9944,7 +9813,7 @@
         <v>323916.09396477998</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -9964,7 +9833,7 @@
         <v>318303.07234737999</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -9984,7 +9853,7 @@
         <v>271493.57354375999</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -10004,7 +9873,7 @@
         <v>263854.62062911002</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -10024,7 +9893,7 @@
         <v>267685.15619016998</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -10044,7 +9913,7 @@
         <v>426832.76023173</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -10064,7 +9933,7 @@
         <v>294231.21717045998</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -10084,7 +9953,7 @@
         <v>338196.47188259999</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -10104,7 +9973,7 @@
         <v>284477.87475025997</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -10124,7 +9993,7 @@
         <v>363676.74996356998</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -10144,7 +10013,7 @@
         <v>395525.09163523</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -10164,7 +10033,7 @@
         <v>354234.10759125999</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -10184,7 +10053,7 @@
         <v>392630.12904432998</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -10204,7 +10073,7 @@
         <v>359154.80815555999</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -10224,7 +10093,7 @@
         <v>323779.10311046999</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -10244,7 +10113,7 @@
         <v>234528.71375518999</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -10264,7 +10133,7 @@
         <v>291476.02895377</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>16</v>
       </c>
@@ -10284,7 +10153,7 @@
         <v>247538.58978328999</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>16</v>
       </c>
@@ -10304,7 +10173,7 @@
         <v>291185.55440995999</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>16</v>
       </c>
@@ -10324,7 +10193,7 @@
         <v>231518.87276043001</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -10344,7 +10213,7 @@
         <v>229576.17469648999</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -10364,7 +10233,7 @@
         <v>294311.48052769998</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -10384,7 +10253,7 @@
         <v>322408.65114610997</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -10404,7 +10273,7 @@
         <v>485656.18510328</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -10424,7 +10293,7 @@
         <v>351397.47839372</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -10444,7 +10313,7 @@
         <v>222219.88905703</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -10464,7 +10333,7 @@
         <v>217867.65959348</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -10484,7 +10353,7 @@
         <v>218282.08575276</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -10504,7 +10373,7 @@
         <v>158501.06154404001</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -10524,7 +10393,7 @@
         <v>166173.99327464</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -10544,7 +10413,7 @@
         <v>144332.75755102999</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -10564,7 +10433,7 @@
         <v>169760.84440115999</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -10584,7 +10453,7 @@
         <v>238408.09478365001</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -10604,7 +10473,7 @@
         <v>270876.43405276898</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -10624,7 +10493,7 @@
         <v>314234.86262625002</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -10644,7 +10513,7 @@
         <v>277915.45410368999</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>16</v>
       </c>
@@ -10664,7 +10533,7 @@
         <v>270638.23886856</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>16</v>
       </c>
@@ -10684,7 +10553,7 @@
         <v>194657.54860337</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>16</v>
       </c>
@@ -10704,7 +10573,7 @@
         <v>142780.62285956001</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>16</v>
       </c>
@@ -10724,7 +10593,7 @@
         <v>126172.4314406</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>16</v>
       </c>
@@ -10744,7 +10613,7 @@
         <v>119420.884381269</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>16</v>
       </c>
@@ -10764,7 +10633,7 @@
         <v>154778.35335799999</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>16</v>
       </c>
@@ -10784,7 +10653,7 @@
         <v>124628.516513</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>16</v>
       </c>
@@ -10804,7 +10673,7 @@
         <v>142431.99295799999</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>16</v>
       </c>
@@ -10824,7 +10693,7 @@
         <v>179160.21016700001</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -10844,7 +10713,7 @@
         <v>242452.717982</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>16</v>
       </c>
@@ -10864,7 +10733,7 @@
         <v>314849.16952599998</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>16</v>
       </c>
@@ -10884,7 +10753,7 @@
         <v>339866.637415</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>16</v>
       </c>
@@ -10904,7 +10773,7 @@
         <v>214264.59917199999</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>16</v>
       </c>
@@ -10924,7 +10793,7 @@
         <v>173505.167625</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>16</v>
       </c>
@@ -10944,7 +10813,7 @@
         <v>141400.17789299999</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>16</v>
       </c>
@@ -10964,7 +10833,7 @@
         <v>133966.182065</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>16</v>
       </c>
@@ -10984,7 +10853,7 @@
         <v>88846.102845000001</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>16</v>
       </c>
@@ -11004,7 +10873,7 @@
         <v>116902.23527722999</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>16</v>
       </c>
@@ -11024,7 +10893,7 @@
         <v>116019.55183394</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>16</v>
       </c>
@@ -11044,7 +10913,7 @@
         <v>120551.61477225</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>16</v>
       </c>
@@ -11064,7 +10933,7 @@
         <v>132973.78750683001</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>16</v>
       </c>
@@ -11084,7 +10953,7 @@
         <v>210107.55157799</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>16</v>
       </c>
@@ -11104,7 +10973,7 @@
         <v>149809.2540859</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>16</v>
       </c>
@@ -11124,7 +10993,7 @@
         <v>143664.85362353001</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>16</v>
       </c>
@@ -11144,7 +11013,7 @@
         <v>177552.47492112001</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>16</v>
       </c>
@@ -11164,7 +11033,7 @@
         <v>101776.52271174001</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>16</v>
       </c>
@@ -11184,7 +11053,7 @@
         <v>69147.219657979993</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>16</v>
       </c>
@@ -11204,7 +11073,7 @@
         <v>85940.994648690001</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>16</v>
       </c>
@@ -11224,7 +11093,7 @@
         <v>81957.708952030007</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>17</v>
       </c>
@@ -11244,7 +11113,7 @@
         <v>69772.308950999999</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>17</v>
       </c>
@@ -11264,7 +11133,7 @@
         <v>85280.336914999905</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>17</v>
       </c>
@@ -11284,7 +11153,7 @@
         <v>105471.265222</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>17</v>
       </c>
@@ -11304,7 +11173,7 @@
         <v>99635.870385000002</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>17</v>
       </c>
@@ -11324,7 +11193,7 @@
         <v>100729.27666</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>17</v>
       </c>
@@ -11344,7 +11213,7 @@
         <v>35445.128258889999</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>17</v>
       </c>
@@ -11364,7 +11233,7 @@
         <v>6154.5658115799997</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>17</v>
       </c>
@@ -11384,7 +11253,7 @@
         <v>5313.92901102</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>17</v>
       </c>
@@ -11404,7 +11273,7 @@
         <v>62075.26346324</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>17</v>
       </c>
@@ -11424,7 +11293,7 @@
         <v>12083.080981589999</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>17</v>
       </c>
@@ -11444,7 +11313,7 @@
         <v>99387.534975899995</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>17</v>
       </c>
@@ -11464,7 +11333,7 @@
         <v>95991.645988029995</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>17</v>
       </c>
@@ -11484,7 +11353,7 @@
         <v>99184.347610850004</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>17</v>
       </c>
@@ -11504,7 +11373,7 @@
         <v>87165.090479730003</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -11524,7 +11393,7 @@
         <v>81022.028222239998</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>17</v>
       </c>
@@ -11544,7 +11413,7 @@
         <v>3130.2414602499998</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>17</v>
       </c>
@@ -11564,7 +11433,7 @@
         <v>409.27537317999997</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>17</v>
       </c>
@@ -11584,7 +11453,7 @@
         <v>3451.9374730700001</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>17</v>
       </c>
@@ -11604,7 +11473,7 @@
         <v>736.39177812000003</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>17</v>
       </c>
@@ -11624,7 +11493,7 @@
         <v>21382.49651795</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>17</v>
       </c>
@@ -11644,7 +11513,7 @@
         <v>5079.3218328399998</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>17</v>
       </c>
@@ -11664,7 +11533,7 @@
         <v>13055.204739979999</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>17</v>
       </c>
@@ -11684,7 +11553,7 @@
         <v>10298.895589469999</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>17</v>
       </c>
@@ -11704,7 +11573,7 @@
         <v>3402.59951211</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>17</v>
       </c>
@@ -11724,7 +11593,7 @@
         <v>19857.072073520001</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>17</v>
       </c>
@@ -11744,7 +11613,7 @@
         <v>71978.610581460001</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>17</v>
       </c>
@@ -11764,7 +11633,7 @@
         <v>50780.600823530003</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>17</v>
       </c>
@@ -11784,7 +11653,7 @@
         <v>55806.345836469998</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>17</v>
       </c>
@@ -11804,7 +11673,7 @@
         <v>61253.990203239999</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>17</v>
       </c>
@@ -11824,7 +11693,7 @@
         <v>12531.27788181</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>17</v>
       </c>
@@ -11844,7 +11713,7 @@
         <v>13257.106362529999</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>17</v>
       </c>
@@ -11864,7 +11733,7 @@
         <v>9812.6340940299997</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>17</v>
       </c>
@@ -11884,7 +11753,7 @@
         <v>584.11661752999998</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>17</v>
       </c>
@@ -11904,7 +11773,7 @@
         <v>13254.67061254</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>17</v>
       </c>
@@ -11924,7 +11793,7 @@
         <v>5546.9697434399995</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>17</v>
       </c>
@@ -11944,7 +11813,7 @@
         <v>5493.9693191699998</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>17</v>
       </c>
@@ -11964,7 +11833,7 @@
         <v>3015.1832988800002</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>17</v>
       </c>
@@ -11984,7 +11853,7 @@
         <v>2264.4928054000002</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>17</v>
       </c>
@@ -12004,7 +11873,7 @@
         <v>178.98538586999999</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>17</v>
       </c>
@@ -12024,7 +11893,7 @@
         <v>1194.30336407</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>17</v>
       </c>
@@ -12044,7 +11913,7 @@
         <v>2124.4363737499998</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>17</v>
       </c>
@@ -12064,7 +11933,7 @@
         <v>7377.8040758899997</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>17</v>
       </c>
@@ -12084,7 +11953,7 @@
         <v>15217.15976357</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>17</v>
       </c>
@@ -12104,7 +11973,7 @@
         <v>16147.52251024</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>17</v>
       </c>
@@ -12124,7 +11993,7 @@
         <v>3120.5803710099999</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>17</v>
       </c>
@@ -12144,7 +12013,7 @@
         <v>2310.3934378399999</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>17</v>
       </c>
@@ -12164,7 +12033,7 @@
         <v>5055.8546122400003</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -12184,7 +12053,7 @@
         <v>930.33062948999998</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>17</v>
       </c>
@@ -12204,7 +12073,7 @@
         <v>1243.0108182699901</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>17</v>
       </c>
@@ -12224,7 +12093,7 @@
         <v>186.40923932000001</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>17</v>
       </c>
@@ -12244,7 +12113,7 @@
         <v>259.0525743</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>17</v>
       </c>
@@ -12264,7 +12133,7 @@
         <v>1133.2956619199999</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>17</v>
       </c>
@@ -12284,7 +12153,7 @@
         <v>5076.1908593799999</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>17</v>
       </c>
@@ -12304,7 +12173,7 @@
         <v>5206.5838976699997</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>17</v>
       </c>
@@ -12324,7 +12193,7 @@
         <v>541.64217556000006</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>17</v>
       </c>
@@ -12344,7 +12213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>17</v>
       </c>
@@ -12364,7 +12233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>17</v>
       </c>
@@ -12384,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -12404,7 +12273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>17</v>
       </c>
@@ -12424,7 +12293,7 @@
         <v>23.80987464</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -12444,7 +12313,7 @@
         <v>1888.75146026999</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>17</v>
       </c>
@@ -12464,7 +12333,7 @@
         <v>2298.7410783300002</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>17</v>
       </c>
@@ -12484,7 +12353,7 @@
         <v>4799.7130958400003</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>17</v>
       </c>
@@ -12504,7 +12373,7 @@
         <v>20153.853261240001</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>17</v>
       </c>
@@ -12524,7 +12393,7 @@
         <v>2920.5635372799902</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>17</v>
       </c>
@@ -12544,7 +12413,7 @@
         <v>2177.29819133</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>17</v>
       </c>
@@ -12564,7 +12433,7 @@
         <v>1475.2048189699999</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>17</v>
       </c>
@@ -12584,7 +12453,7 @@
         <v>8659.7803729999996</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>17</v>
       </c>
@@ -12604,7 +12473,7 @@
         <v>5139.9868640799996</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>17</v>
       </c>
@@ -12624,7 +12493,7 @@
         <v>11224.9021373</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>17</v>
       </c>
@@ -12644,7 +12513,7 @@
         <v>1592.1991821699901</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>17</v>
       </c>
@@ -12664,7 +12533,7 @@
         <v>1332.3021215399999</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>17</v>
       </c>
@@ -12684,7 +12553,7 @@
         <v>4264.4203301899997</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -12704,7 +12573,7 @@
         <v>1310.3314554599999</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>17</v>
       </c>
@@ -12724,7 +12593,7 @@
         <v>3982.8341796199902</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>17</v>
       </c>
@@ -12744,7 +12613,7 @@
         <v>3389.83523767</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>17</v>
       </c>
@@ -12764,7 +12633,7 @@
         <v>3052.0159204400002</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>17</v>
       </c>
@@ -12784,7 +12653,7 @@
         <v>2928.02745112</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>17</v>
       </c>
@@ -12804,7 +12673,7 @@
         <v>1445.49695647</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>17</v>
       </c>
@@ -12824,7 +12693,7 @@
         <v>3971.6358952999999</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -12844,7 +12713,7 @@
         <v>2656.8569591400001</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>17</v>
       </c>
@@ -12864,7 +12733,7 @@
         <v>1561.5225103</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>17</v>
       </c>
@@ -12884,7 +12753,7 @@
         <v>1189.27085794</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>17</v>
       </c>
@@ -12904,7 +12773,7 @@
         <v>3554.2459880400002</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>18</v>
       </c>
@@ -12924,7 +12793,7 @@
         <v>5197428.6421999997</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>18</v>
       </c>
@@ -12944,7 +12813,7 @@
         <v>4581577.1551999999</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>18</v>
       </c>
@@ -12964,7 +12833,7 @@
         <v>4950710.6597999996</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>18</v>
       </c>
@@ -12984,7 +12853,7 @@
         <v>4024760.8862999999</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>18</v>
       </c>
@@ -13004,7 +12873,7 @@
         <v>3891618.5709000002</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>18</v>
       </c>
@@ -13024,7 +12893,7 @@
         <v>4154619.1590999998</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>18</v>
       </c>
@@ -13044,7 +12913,7 @@
         <v>3627422.0872</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>18</v>
       </c>
@@ -13064,7 +12933,7 @@
         <v>4090729.0197000001</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>18</v>
       </c>
@@ -13084,7 +12953,7 @@
         <v>3652169.2947</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>18</v>
       </c>
@@ -13104,7 +12973,7 @@
         <v>3544386.3732400001</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>18</v>
       </c>
@@ -13124,7 +12993,7 @@
         <v>3365424.7051900001</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>18</v>
       </c>
@@ -13144,7 +13013,7 @@
         <v>3714812.1545768199</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>18</v>
       </c>
@@ -13164,7 +13033,7 @@
         <v>4043422.1131214998</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>18</v>
       </c>
@@ -13184,7 +13053,7 @@
         <v>3629630.8329309099</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>18</v>
       </c>
@@ -13204,7 +13073,7 @@
         <v>3594272.0681878701</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>18</v>
       </c>
@@ -13224,7 +13093,7 @@
         <v>3739967.9087600401</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>18</v>
       </c>
@@ -13244,7 +13113,7 @@
         <v>3943393.1060672202</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>18</v>
       </c>
@@ -13264,7 +13133,7 @@
         <v>4040346.3631133698</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>18</v>
       </c>
@@ -13284,7 +13153,7 @@
         <v>4031327.9492922602</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>18</v>
       </c>
@@ -13304,7 +13173,7 @@
         <v>3931799.8175928299</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>18</v>
       </c>
@@ -13324,7 +13193,7 @@
         <v>3302772.8983954201</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>18</v>
       </c>
@@ -13344,7 +13213,7 @@
         <v>3296956.9875276601</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>18</v>
       </c>
@@ -13364,7 +13233,7 @@
         <v>2857818.4669234599</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>18</v>
       </c>
@@ -13384,7 +13253,7 @@
         <v>3269789.9696423202</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>18</v>
       </c>
@@ -13404,7 +13273,7 @@
         <v>3503403.07397199</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>18</v>
       </c>
@@ -13424,7 +13293,7 @@
         <v>3165529.81016349</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>18</v>
       </c>
@@ -13444,7 +13313,7 @@
         <v>3657796.8735740199</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>18</v>
       </c>
@@ -13464,7 +13333,7 @@
         <v>2956710.3160603298</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>18</v>
       </c>
@@ -13484,7 +13353,7 @@
         <v>3132375.0975721702</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>18</v>
       </c>
@@ -13504,7 +13373,7 @@
         <v>3422722.9752444699</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>18</v>
       </c>
@@ -13524,7 +13393,7 @@
         <v>3216011.1947159902</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>18</v>
       </c>
@@ -13544,7 +13413,7 @@
         <v>3089838.9019569298</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>18</v>
       </c>
@@ -13564,7 +13433,7 @@
         <v>2806609.2792665199</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>18</v>
       </c>
@@ -13584,7 +13453,7 @@
         <v>3050065.5765390801</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>18</v>
       </c>
@@ -13604,7 +13473,7 @@
         <v>2973692.7187811201</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>18</v>
       </c>
@@ -13624,7 +13493,7 @@
         <v>3307814.6517251302</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>18</v>
       </c>
@@ -13644,7 +13513,7 @@
         <v>3509195.7770120101</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>18</v>
       </c>
@@ -13664,7 +13533,7 @@
         <v>3305840.0356540699</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>18</v>
       </c>
@@ -13684,7 +13553,7 @@
         <v>3245098.0537418998</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>18</v>
       </c>
@@ -13704,7 +13573,7 @@
         <v>3061596.7593544698</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>18</v>
       </c>
@@ -13724,7 +13593,7 @@
         <v>3126086.9049001499</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>18</v>
       </c>
@@ -13744,7 +13613,7 @@
         <v>3559182.6493485598</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>18</v>
       </c>
@@ -13764,7 +13633,7 @@
         <v>3271208.3285952499</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>18</v>
       </c>
@@ -13784,7 +13653,7 @@
         <v>3257802.74138617</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>18</v>
       </c>
@@ -13804,7 +13673,7 @@
         <v>2940540.8229511799</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>18</v>
       </c>
@@ -13824,7 +13693,7 @@
         <v>2769648.0259104301</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>18</v>
       </c>
@@ -13844,7 +13713,7 @@
         <v>2881916.0777511802</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>18</v>
       </c>
@@ -13864,7 +13733,7 @@
         <v>3228632.7503521498</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>18</v>
       </c>
@@ -13884,7 +13753,7 @@
         <v>3423866.19164591</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>18</v>
       </c>
@@ -13904,7 +13773,7 @@
         <v>3242528.5774266599</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>18</v>
       </c>
@@ -13924,7 +13793,7 @@
         <v>3432068.9761375198</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>18</v>
       </c>
@@ -13944,7 +13813,7 @@
         <v>3010917.6338102799</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>18</v>
       </c>
@@ -13964,7 +13833,7 @@
         <v>3253363.6535853702</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>18</v>
       </c>
@@ -13984,7 +13853,7 @@
         <v>3135136.3058806499</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>18</v>
       </c>
@@ -14004,7 +13873,7 @@
         <v>3610967.18726988</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>18</v>
       </c>
@@ -14024,7 +13893,7 @@
         <v>3005352.9726813301</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>18</v>
       </c>
@@ -14044,7 +13913,7 @@
         <v>2439086.1189815002</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>18</v>
       </c>
@@ -14064,7 +13933,7 @@
         <v>2599971.0739709702</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>18</v>
       </c>
@@ -14084,7 +13953,7 @@
         <v>2506147.04214516</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>18</v>
       </c>
@@ -14104,7 +13973,7 @@
         <v>2979357.25585349</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>18</v>
       </c>
@@ -14124,7 +13993,7 @@
         <v>3403895.6208000001</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>18</v>
       </c>
@@ -14144,7 +14013,7 @@
         <v>2702475.2104000002</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>18</v>
       </c>
@@ -14164,7 +14033,7 @@
         <v>3326891.4370599999</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>18</v>
       </c>
@@ -14184,7 +14053,7 @@
         <v>2968703.1397600002</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>18</v>
       </c>
@@ -14204,7 +14073,7 @@
         <v>3330218.7161099999</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>18</v>
       </c>
@@ -14224,7 +14093,7 @@
         <v>3110546.4893299998</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>18</v>
       </c>
@@ -14244,7 +14113,7 @@
         <v>3254221.1866799998</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>18</v>
       </c>
@@ -14264,7 +14133,7 @@
         <v>2938593.1561400001</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>18</v>
       </c>
@@ -14284,7 +14153,7 @@
         <v>2887436.5772699998</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>18</v>
       </c>
@@ -14304,7 +14173,7 @@
         <v>2798992.5844200002</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>18</v>
       </c>
@@ -14324,7 +14193,7 @@
         <v>2435093.9505599998</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>18</v>
       </c>
@@ -14344,7 +14213,7 @@
         <v>2891537.3685300001</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>18</v>
       </c>
@@ -14364,7 +14233,7 @@
         <v>3168280.4578311099</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>18</v>
       </c>
@@ -14384,7 +14253,7 @@
         <v>2638780.05429964</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>18</v>
       </c>
@@ -14404,7 +14273,7 @@
         <v>2812122.0604403601</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>18</v>
       </c>
@@ -14424,7 +14293,7 @@
         <v>2713644.3994927802</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>18</v>
       </c>
@@ -14444,7 +14313,7 @@
         <v>3260107.89869167</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>18</v>
       </c>
@@ -14464,7 +14333,7 @@
         <v>2947611.2059440902</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>18</v>
       </c>
@@ -14484,7 +14353,7 @@
         <v>3065869.0489309998</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>18</v>
       </c>
@@ -14504,7 +14373,7 @@
         <v>3206202.4270034898</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>18</v>
       </c>
@@ -14524,7 +14393,7 @@
         <v>2575184.5924783801</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>18</v>
       </c>
@@ -14544,7 +14413,7 @@
         <v>2610463.5950343199</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>18</v>
       </c>
@@ -14564,7 +14433,7 @@
         <v>2603588.8005834301</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>18</v>
       </c>
